--- a/example_data/EMA/label_corrected/cellcept-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/cellcept-epar-product-information_en.xlsx
@@ -812,7 +812,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric || warnings</t>
+          <t>populations - pediatric || populations - adult || warnings</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>populations - pediatric || pregnancy</t>
+          <t>pregnancy || populations - pediatric</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I225" t="inlineStr"/>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I384" t="inlineStr"/>
@@ -20248,7 +20248,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I538" t="inlineStr"/>
